--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -887,10 +887,6 @@
   </si>
   <si>
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Document[classCode="DOC" and moodCode="EVN"]</t>
@@ -1306,17 +1302,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.6328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.4765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.40234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1325,26 +1321,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="47.70703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.08203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7572,16 +7568,16 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -7589,7 +7585,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>196</v>
@@ -7701,7 +7697,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
@@ -7813,7 +7809,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>201</v>
@@ -7927,7 +7923,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>202</v>
@@ -8043,7 +8039,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -8157,7 +8153,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>209</v>
@@ -8271,7 +8267,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>214</v>
@@ -8383,7 +8379,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>218</v>
@@ -8495,7 +8491,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -8609,7 +8605,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -8725,7 +8721,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -8837,7 +8833,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>226</v>
@@ -8951,7 +8947,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>230</v>
@@ -9063,7 +9059,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>233</v>
@@ -9175,7 +9171,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>235</v>
@@ -9287,7 +9283,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>238</v>
@@ -9399,7 +9395,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>241</v>
@@ -9511,7 +9507,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>245</v>
@@ -9623,7 +9619,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -9737,7 +9733,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -9853,7 +9849,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -9965,7 +9961,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>251</v>
@@ -10077,7 +10073,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>254</v>
@@ -10191,7 +10187,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>258</v>
@@ -10305,7 +10301,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>262</v>
@@ -10419,10 +10415,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10445,19 +10441,19 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -10506,7 +10502,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,7 +619,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1302,17 +1302,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.4765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.05859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.40234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1321,26 +1321,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.08203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
+++ b/ig/ch-elm/StructureDefinition-FindDocumentReferencesResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
